--- a/assets/excel/2022_7-2-2.xlsx
+++ b/assets/excel/2022_7-2-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{129A548A-671D-46A2-BF7A-31E5BE173054}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B74CF2D-71C4-4393-842F-22305AB6ACEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{A4042D82-6A2D-4C0C-9CCD-29827289911F}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Geschlecht</t>
   </si>
   <si>
-    <t>Bezugspersonen mit selbstgenutzem Wochneigentum</t>
-  </si>
-  <si>
     <t>Eigentümerquote der Bezugspersonen mit selbstbewohnen Wohneigentum</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Deutschland</t>
+  </si>
+  <si>
+    <t>Bezugspersonen mit selbstgenutzem Wohneigentum</t>
   </si>
 </sst>
 </file>
@@ -300,12 +300,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,9 +313,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -329,7 +320,16 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +651,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1123,861 +1125,861 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="s">
+    </row>
+    <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
         <v>8</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J10" s="5">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+    </row>
+    <row r="11" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1855.9062169999904</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1659.0240119999867</v>
+      </c>
+      <c r="G11" s="7">
+        <v>196.88220500000014</v>
+      </c>
+      <c r="H11" s="8">
+        <v>47.604480733871732</v>
+      </c>
+      <c r="I11" s="8">
+        <v>51.506501785371185</v>
+      </c>
+      <c r="J11" s="8">
+        <v>29.055967561435793</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1435.5941429999823</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1274.9813119999847</v>
+      </c>
+      <c r="G12" s="7">
+        <v>160.6128310000002</v>
+      </c>
+      <c r="H12" s="8">
+        <v>53.55656882929528</v>
+      </c>
+      <c r="I12" s="8">
+        <v>58.458763507684907</v>
+      </c>
+      <c r="J12" s="8">
+        <v>32.153005385892854</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6">
+        <v>420.31207400000125</v>
+      </c>
+      <c r="F13" s="7">
+        <v>384.04270000000116</v>
+      </c>
+      <c r="G13" s="7">
+        <v>36.269373999999992</v>
+      </c>
+      <c r="H13" s="8">
+        <v>34.506216228755136</v>
+      </c>
+      <c r="I13" s="8">
+        <v>36.926948596757711</v>
+      </c>
+      <c r="J13" s="8">
+        <v>20.368065780946569</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1918.1255820000035</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1757.135139000005</v>
+      </c>
+      <c r="G14" s="7">
+        <v>160.9904429999998</v>
+      </c>
+      <c r="H14" s="8">
+        <v>52.314135213980443</v>
+      </c>
+      <c r="I14" s="8">
+        <v>55.24772318611808</v>
+      </c>
+      <c r="J14" s="8">
+        <v>33.119676043184079</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1488.4308510000044</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1355.3379610000009</v>
+      </c>
+      <c r="G15" s="7">
+        <v>133.09288999999987</v>
+      </c>
+      <c r="H15" s="8">
+        <v>59.109118140831406</v>
+      </c>
+      <c r="I15" s="8">
+        <v>62.3987591339801</v>
+      </c>
+      <c r="J15" s="8">
+        <v>38.4608331344687</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>429.69473100000005</v>
+      </c>
+      <c r="F16" s="7">
+        <v>401.7971779999998</v>
+      </c>
+      <c r="G16" s="7">
+        <v>27.897553000000009</v>
+      </c>
+      <c r="H16" s="8">
+        <v>37.415313748206117</v>
+      </c>
+      <c r="I16" s="8">
+        <v>39.844742966193699</v>
+      </c>
+      <c r="J16" s="8">
+        <v>19.921252735395786</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1938.2105640000038</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1794.1418190000065</v>
+      </c>
+      <c r="G17" s="7">
+        <v>144.06874499999989</v>
+      </c>
+      <c r="H17" s="8">
+        <v>52.637307397412705</v>
+      </c>
+      <c r="I17" s="8">
+        <v>55.854304351405574</v>
+      </c>
+      <c r="J17" s="8">
+        <v>30.651785591208984</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1487.0793669999994</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1368.2075349999986</v>
+      </c>
+      <c r="G18" s="7">
+        <v>118.87183200000001</v>
+      </c>
+      <c r="H18" s="8">
+        <v>58.941226020869074</v>
+      </c>
+      <c r="I18" s="8">
+        <v>62.650110196160924</v>
+      </c>
+      <c r="J18" s="8">
+        <v>35.055101807329073</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="6">
+        <v>451.13119700000072</v>
+      </c>
+      <c r="F19" s="7">
+        <v>425.93428400000079</v>
+      </c>
+      <c r="G19" s="7">
+        <v>25.196912999999995</v>
+      </c>
+      <c r="H19" s="8">
+        <v>38.917041277456143</v>
+      </c>
+      <c r="I19" s="8">
+        <v>41.421411266492534</v>
+      </c>
+      <c r="J19" s="8">
+        <v>19.246403355578501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1773.8197899999996</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1663.630277</v>
+      </c>
+      <c r="G20" s="7">
+        <v>110.18951299999998</v>
+      </c>
+      <c r="H20" s="8">
+        <v>47.889691772323637</v>
+      </c>
+      <c r="I20" s="8">
+        <v>50.864335877168763</v>
+      </c>
+      <c r="J20" s="8">
+        <v>25.433274620501304</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1412.9640009999978</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1313.993876000002</v>
+      </c>
+      <c r="G21" s="7">
+        <v>98.970124999999967</v>
+      </c>
+      <c r="H21" s="8">
+        <v>54.504345856199052</v>
+      </c>
+      <c r="I21" s="8">
+        <v>58.066732069290538</v>
+      </c>
+      <c r="J21" s="8">
+        <v>30.037852806306141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6">
+        <v>360.85578900000024</v>
+      </c>
+      <c r="F22" s="7">
+        <v>349.63640099999992</v>
+      </c>
+      <c r="G22" s="7">
+        <v>11.219388000000002</v>
+      </c>
+      <c r="H22" s="8">
+        <v>32.463258231150959</v>
+      </c>
+      <c r="I22" s="8">
+        <v>34.692434112563632</v>
+      </c>
+      <c r="J22" s="8">
+        <v>10.812333173680489</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="6">
+        <v>16812.028910999765</v>
+      </c>
+      <c r="F23" s="7">
+        <v>14967.194339999982</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1844.8345710000021</v>
+      </c>
+      <c r="H23" s="8">
+        <v>41.224391391140657</v>
+      </c>
+      <c r="I23" s="8">
+        <v>45.772392034299195</v>
+      </c>
+      <c r="J23" s="8">
+        <v>22.824830962646555</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="6">
+        <v>12563.723440999818</v>
+      </c>
+      <c r="F24" s="7">
+        <v>11095.20726199992</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1468.5161790000031</v>
+      </c>
+      <c r="H24" s="8">
+        <v>46.667137527301833</v>
+      </c>
+      <c r="I24" s="8">
+        <v>52.423863791788683</v>
+      </c>
+      <c r="J24" s="8">
+        <v>25.505824718473434</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4248.3054699999984</v>
+      </c>
+      <c r="F25" s="7">
+        <v>3871.9870780000283</v>
+      </c>
+      <c r="G25" s="7">
+        <v>376.31839200000036</v>
+      </c>
+      <c r="H25" s="8">
+        <v>30.65208813201593</v>
+      </c>
+      <c r="I25" s="8">
+        <v>33.568009032859557</v>
+      </c>
+      <c r="J25" s="8">
+        <v>16.185700282502076</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="6">
+        <v>16889.142302000058</v>
+      </c>
+      <c r="F26" s="7">
+        <v>15370.10973700029</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1519.0325649999954</v>
+      </c>
+      <c r="H26" s="8">
+        <v>44.017427069424436</v>
+      </c>
+      <c r="I26" s="8">
+        <v>47.180303990344505</v>
+      </c>
+      <c r="J26" s="8">
+        <v>26.227154161471578</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="6">
+        <v>12840.914498000131</v>
+      </c>
+      <c r="F27" s="7">
+        <v>11590.39003900022</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1250.5244589999986</v>
+      </c>
+      <c r="H27" s="8">
+        <v>50.107064760288836</v>
+      </c>
+      <c r="I27" s="8">
+        <v>53.915650760409171</v>
+      </c>
+      <c r="J27" s="8">
+        <v>30.281318132874169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4048.2278039999987</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3779.719697999999</v>
+      </c>
+      <c r="G28" s="7">
+        <v>268.50810600000079</v>
+      </c>
+      <c r="H28" s="8">
+        <v>31.770084358185841</v>
+      </c>
+      <c r="I28" s="8">
+        <v>34.112619592292923</v>
+      </c>
+      <c r="J28" s="8">
+        <v>16.154343985569465</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="6">
+        <v>16971.784138999905</v>
+      </c>
+      <c r="F29" s="7">
+        <v>15581.152609000041</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1390.6315300000063</v>
+      </c>
+      <c r="H29" s="8">
+        <v>44.396634269400323</v>
+      </c>
+      <c r="I29" s="8">
+        <v>47.572142072146804</v>
+      </c>
+      <c r="J29" s="8">
+        <v>25.399873840814209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="6">
+        <v>13079.190073000178</v>
+      </c>
+      <c r="F30" s="7">
+        <v>11910.333818000159</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1168.8562550000067</v>
+      </c>
+      <c r="H30" s="8">
+        <v>50.340284518311861</v>
+      </c>
+      <c r="I30" s="8">
+        <v>54.191605181179447</v>
+      </c>
+      <c r="J30" s="8">
+        <v>29.196822985809494</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3892.5940659999806</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3670.8187909999788</v>
+      </c>
+      <c r="G31" s="7">
+        <v>221.77527500000065</v>
+      </c>
+      <c r="H31" s="8">
+        <v>31.786451884739854</v>
+      </c>
+      <c r="I31" s="8">
+        <v>34.069527987990952</v>
+      </c>
+      <c r="J31" s="8">
+        <v>15.070488315419315</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="6">
+        <v>15727.373324999724</v>
+      </c>
+      <c r="F32" s="7">
+        <v>14583.315411999753</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1144.0579129999956</v>
+      </c>
+      <c r="H32" s="8">
+        <v>40.685785410632462</v>
+      </c>
+      <c r="I32" s="8">
+        <v>43.766082799043268</v>
+      </c>
+      <c r="J32" s="8">
+        <v>21.445782655087893</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="6">
+        <v>12316.197757999847</v>
+      </c>
+      <c r="F33" s="7">
+        <v>11326.162868999863</v>
+      </c>
+      <c r="G33" s="7">
+        <v>990.03488899999707</v>
+      </c>
+      <c r="H33" s="8">
+        <v>46.737284230412278</v>
+      </c>
+      <c r="I33" s="8">
+        <v>50.708157202939134</v>
+      </c>
+      <c r="J33" s="8">
+        <v>24.652278009102563</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2006</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3411.1755670000402</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3257.152543000037</v>
+      </c>
+      <c r="G34" s="7">
+        <v>154.02302399999991</v>
+      </c>
+      <c r="H34" s="8">
+        <v>27.724749946773748</v>
+      </c>
+      <c r="I34" s="8">
+        <v>29.650734562991538</v>
+      </c>
+      <c r="J34" s="8">
+        <v>11.680315964953527</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7">
-        <v>5</v>
-      </c>
-      <c r="G10" s="7">
-        <v>6</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8</v>
-      </c>
-      <c r="J10" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2018</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1855.9062169999904</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1659.0240119999867</v>
-      </c>
-      <c r="G11" s="9">
-        <v>196.88220500000014</v>
-      </c>
-      <c r="H11" s="10">
-        <v>47.604480733871732</v>
-      </c>
-      <c r="I11" s="10">
-        <v>51.506501785371185</v>
-      </c>
-      <c r="J11" s="10">
-        <v>29.055967561435793</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2018</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1435.5941429999823</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1274.9813119999847</v>
-      </c>
-      <c r="G12" s="9">
-        <v>160.6128310000002</v>
-      </c>
-      <c r="H12" s="10">
-        <v>53.55656882929528</v>
-      </c>
-      <c r="I12" s="10">
-        <v>58.458763507684907</v>
-      </c>
-      <c r="J12" s="10">
-        <v>32.153005385892854</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2018</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="8">
-        <v>420.31207400000125</v>
-      </c>
-      <c r="F13" s="9">
-        <v>384.04270000000116</v>
-      </c>
-      <c r="G13" s="9">
-        <v>36.269373999999992</v>
-      </c>
-      <c r="H13" s="10">
-        <v>34.506216228755136</v>
-      </c>
-      <c r="I13" s="10">
-        <v>36.926948596757711</v>
-      </c>
-      <c r="J13" s="10">
-        <v>20.368065780946569</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2014</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1918.1255820000035</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1757.135139000005</v>
-      </c>
-      <c r="G14" s="9">
-        <v>160.9904429999998</v>
-      </c>
-      <c r="H14" s="10">
-        <v>52.314135213980443</v>
-      </c>
-      <c r="I14" s="10">
-        <v>55.24772318611808</v>
-      </c>
-      <c r="J14" s="10">
-        <v>33.119676043184079</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2014</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1488.4308510000044</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1355.3379610000009</v>
-      </c>
-      <c r="G15" s="9">
-        <v>133.09288999999987</v>
-      </c>
-      <c r="H15" s="10">
-        <v>59.109118140831406</v>
-      </c>
-      <c r="I15" s="10">
-        <v>62.3987591339801</v>
-      </c>
-      <c r="J15" s="10">
-        <v>38.4608331344687</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2014</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8">
-        <v>429.69473100000005</v>
-      </c>
-      <c r="F16" s="9">
-        <v>401.7971779999998</v>
-      </c>
-      <c r="G16" s="9">
-        <v>27.897553000000009</v>
-      </c>
-      <c r="H16" s="10">
-        <v>37.415313748206117</v>
-      </c>
-      <c r="I16" s="10">
-        <v>39.844742966193699</v>
-      </c>
-      <c r="J16" s="10">
-        <v>19.921252735395786</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2010</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1938.2105640000038</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1794.1418190000065</v>
-      </c>
-      <c r="G17" s="9">
-        <v>144.06874499999989</v>
-      </c>
-      <c r="H17" s="10">
-        <v>52.637307397412705</v>
-      </c>
-      <c r="I17" s="10">
-        <v>55.854304351405574</v>
-      </c>
-      <c r="J17" s="10">
-        <v>30.651785591208984</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2010</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1487.0793669999994</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1368.2075349999986</v>
-      </c>
-      <c r="G18" s="9">
-        <v>118.87183200000001</v>
-      </c>
-      <c r="H18" s="10">
-        <v>58.941226020869074</v>
-      </c>
-      <c r="I18" s="10">
-        <v>62.650110196160924</v>
-      </c>
-      <c r="J18" s="10">
-        <v>35.055101807329073</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2010</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8">
-        <v>451.13119700000072</v>
-      </c>
-      <c r="F19" s="9">
-        <v>425.93428400000079</v>
-      </c>
-      <c r="G19" s="9">
-        <v>25.196912999999995</v>
-      </c>
-      <c r="H19" s="10">
-        <v>38.917041277456143</v>
-      </c>
-      <c r="I19" s="10">
-        <v>41.421411266492534</v>
-      </c>
-      <c r="J19" s="10">
-        <v>19.246403355578501</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="8">
-        <v>2006</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1773.8197899999996</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1663.630277</v>
-      </c>
-      <c r="G20" s="9">
-        <v>110.18951299999998</v>
-      </c>
-      <c r="H20" s="10">
-        <v>47.889691772323637</v>
-      </c>
-      <c r="I20" s="10">
-        <v>50.864335877168763</v>
-      </c>
-      <c r="J20" s="10">
-        <v>25.433274620501304</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="8">
-        <v>2006</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1412.9640009999978</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1313.993876000002</v>
-      </c>
-      <c r="G21" s="9">
-        <v>98.970124999999967</v>
-      </c>
-      <c r="H21" s="10">
-        <v>54.504345856199052</v>
-      </c>
-      <c r="I21" s="10">
-        <v>58.066732069290538</v>
-      </c>
-      <c r="J21" s="10">
-        <v>30.037852806306141</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="8">
-        <v>2006</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="8">
-        <v>360.85578900000024</v>
-      </c>
-      <c r="F22" s="9">
-        <v>349.63640099999992</v>
-      </c>
-      <c r="G22" s="9">
-        <v>11.219388000000002</v>
-      </c>
-      <c r="H22" s="10">
-        <v>32.463258231150959</v>
-      </c>
-      <c r="I22" s="10">
-        <v>34.692434112563632</v>
-      </c>
-      <c r="J22" s="10">
-        <v>10.812333173680489</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2018</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8">
-        <v>16812.028910999765</v>
-      </c>
-      <c r="F23" s="9">
-        <v>14967.194339999982</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1844.8345710000021</v>
-      </c>
-      <c r="H23" s="10">
-        <v>41.224391391140657</v>
-      </c>
-      <c r="I23" s="10">
-        <v>45.772392034299195</v>
-      </c>
-      <c r="J23" s="10">
-        <v>22.824830962646555</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2018</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="8">
-        <v>12563.723440999818</v>
-      </c>
-      <c r="F24" s="9">
-        <v>11095.20726199992</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1468.5161790000031</v>
-      </c>
-      <c r="H24" s="10">
-        <v>46.667137527301833</v>
-      </c>
-      <c r="I24" s="10">
-        <v>52.423863791788683</v>
-      </c>
-      <c r="J24" s="10">
-        <v>25.505824718473434</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2018</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="8">
-        <v>4248.3054699999984</v>
-      </c>
-      <c r="F25" s="9">
-        <v>3871.9870780000283</v>
-      </c>
-      <c r="G25" s="9">
-        <v>376.31839200000036</v>
-      </c>
-      <c r="H25" s="10">
-        <v>30.65208813201593</v>
-      </c>
-      <c r="I25" s="10">
-        <v>33.568009032859557</v>
-      </c>
-      <c r="J25" s="10">
-        <v>16.185700282502076</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2014</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8">
-        <v>16889.142302000058</v>
-      </c>
-      <c r="F26" s="9">
-        <v>15370.10973700029</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1519.0325649999954</v>
-      </c>
-      <c r="H26" s="10">
-        <v>44.017427069424436</v>
-      </c>
-      <c r="I26" s="10">
-        <v>47.180303990344505</v>
-      </c>
-      <c r="J26" s="10">
-        <v>26.227154161471578</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2014</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8">
-        <v>12840.914498000131</v>
-      </c>
-      <c r="F27" s="9">
-        <v>11590.39003900022</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1250.5244589999986</v>
-      </c>
-      <c r="H27" s="10">
-        <v>50.107064760288836</v>
-      </c>
-      <c r="I27" s="10">
-        <v>53.915650760409171</v>
-      </c>
-      <c r="J27" s="10">
-        <v>30.281318132874169</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2014</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="8">
-        <v>4048.2278039999987</v>
-      </c>
-      <c r="F28" s="9">
-        <v>3779.719697999999</v>
-      </c>
-      <c r="G28" s="9">
-        <v>268.50810600000079</v>
-      </c>
-      <c r="H28" s="10">
-        <v>31.770084358185841</v>
-      </c>
-      <c r="I28" s="10">
-        <v>34.112619592292923</v>
-      </c>
-      <c r="J28" s="10">
-        <v>16.154343985569465</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2010</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8">
-        <v>16971.784138999905</v>
-      </c>
-      <c r="F29" s="9">
-        <v>15581.152609000041</v>
-      </c>
-      <c r="G29" s="9">
-        <v>1390.6315300000063</v>
-      </c>
-      <c r="H29" s="10">
-        <v>44.396634269400323</v>
-      </c>
-      <c r="I29" s="10">
-        <v>47.572142072146804</v>
-      </c>
-      <c r="J29" s="10">
-        <v>25.399873840814209</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2010</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="8">
-        <v>13079.190073000178</v>
-      </c>
-      <c r="F30" s="9">
-        <v>11910.333818000159</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1168.8562550000067</v>
-      </c>
-      <c r="H30" s="10">
-        <v>50.340284518311861</v>
-      </c>
-      <c r="I30" s="10">
-        <v>54.191605181179447</v>
-      </c>
-      <c r="J30" s="10">
-        <v>29.196822985809494</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="8">
-        <v>2010</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="8">
-        <v>3892.5940659999806</v>
-      </c>
-      <c r="F31" s="9">
-        <v>3670.8187909999788</v>
-      </c>
-      <c r="G31" s="9">
-        <v>221.77527500000065</v>
-      </c>
-      <c r="H31" s="10">
-        <v>31.786451884739854</v>
-      </c>
-      <c r="I31" s="10">
-        <v>34.069527987990952</v>
-      </c>
-      <c r="J31" s="10">
-        <v>15.070488315419315</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="8">
-        <v>2006</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8">
-        <v>15727.373324999724</v>
-      </c>
-      <c r="F32" s="9">
-        <v>14583.315411999753</v>
-      </c>
-      <c r="G32" s="9">
-        <v>1144.0579129999956</v>
-      </c>
-      <c r="H32" s="10">
-        <v>40.685785410632462</v>
-      </c>
-      <c r="I32" s="10">
-        <v>43.766082799043268</v>
-      </c>
-      <c r="J32" s="10">
-        <v>21.445782655087893</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="8">
-        <v>2006</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="8">
-        <v>12316.197757999847</v>
-      </c>
-      <c r="F33" s="9">
-        <v>11326.162868999863</v>
-      </c>
-      <c r="G33" s="9">
-        <v>990.03488899999707</v>
-      </c>
-      <c r="H33" s="10">
-        <v>46.737284230412278</v>
-      </c>
-      <c r="I33" s="10">
-        <v>50.708157202939134</v>
-      </c>
-      <c r="J33" s="10">
-        <v>24.652278009102563</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2006</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="8">
-        <v>3411.1755670000402</v>
-      </c>
-      <c r="F34" s="9">
-        <v>3257.152543000037</v>
-      </c>
-      <c r="G34" s="9">
-        <v>154.02302399999991</v>
-      </c>
-      <c r="H34" s="10">
-        <v>27.724749946773748</v>
-      </c>
-      <c r="I34" s="10">
-        <v>29.650734562991538</v>
-      </c>
-      <c r="J34" s="10">
-        <v>11.680315964953527</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="2:17" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" spans="2:17" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" spans="2:17" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B38" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:17" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B42" s="8" t="s">
+    <row r="43" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:17" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B43" s="8" t="s">
+    <row r="44" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:17" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B44" s="8" t="s">
+    <row r="45" spans="2:17" s="11" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="12" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="15" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
